--- a/BASE_templates/30_08v01_DemixCMMIv2Tool.xlsx
+++ b/BASE_templates/30_08v01_DemixCMMIv2Tool.xlsx
@@ -5,46 +5,47 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\BASE_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PietervanZyl\Documents\GitHub\CMMITools\BASE_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA783CB1-8C3A-4625-BF8F-6539134F2C13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2872DE6-7012-4A6A-A64F-DD2F92152403}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="852" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="852" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tmp" sheetId="39" r:id="rId1"/>
     <sheet name="ou" sheetId="40" r:id="rId2"/>
     <sheet name="ou-gov&amp;ii" sheetId="41" r:id="rId3"/>
     <sheet name="Findings" sheetId="52" r:id="rId4"/>
-    <sheet name="p1" sheetId="42" r:id="rId5"/>
-    <sheet name="p2" sheetId="43" r:id="rId6"/>
-    <sheet name="p3" sheetId="44" r:id="rId7"/>
-    <sheet name="p4" sheetId="45" r:id="rId8"/>
-    <sheet name="p5" sheetId="46" r:id="rId9"/>
-    <sheet name="p6" sheetId="47" r:id="rId10"/>
-    <sheet name="s1" sheetId="48" r:id="rId11"/>
-    <sheet name="s2" sheetId="49" r:id="rId12"/>
-    <sheet name="s3" sheetId="50" r:id="rId13"/>
-    <sheet name="s4" sheetId="51" r:id="rId14"/>
-    <sheet name="Template1" sheetId="37" r:id="rId15"/>
-    <sheet name="Template2" sheetId="38" r:id="rId16"/>
-    <sheet name="Tables" sheetId="4" r:id="rId17"/>
+    <sheet name="Processes" sheetId="53" r:id="rId5"/>
+    <sheet name="p1" sheetId="42" r:id="rId6"/>
+    <sheet name="p2" sheetId="43" r:id="rId7"/>
+    <sheet name="p3" sheetId="44" r:id="rId8"/>
+    <sheet name="p4" sheetId="45" r:id="rId9"/>
+    <sheet name="p5" sheetId="46" r:id="rId10"/>
+    <sheet name="p6" sheetId="47" r:id="rId11"/>
+    <sheet name="s1" sheetId="48" r:id="rId12"/>
+    <sheet name="s2" sheetId="49" r:id="rId13"/>
+    <sheet name="s3" sheetId="50" r:id="rId14"/>
+    <sheet name="s4" sheetId="51" r:id="rId15"/>
+    <sheet name="Template1" sheetId="37" r:id="rId16"/>
+    <sheet name="Template2" sheetId="38" r:id="rId17"/>
+    <sheet name="Tables" sheetId="4" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Findings!$A$1:$C$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">ou!$A$1:$W$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'ou-gov&amp;ii'!$A$1:$T$37</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'p1'!$A$1:$W$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'p2'!$A$1:$W$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'p3'!$A$1:$W$40</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'p4'!$A$1:$W$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">'p5'!$A$1:$W$40</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">'p6'!$A$1:$W$40</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">'s1'!$A$1:$W$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">'s2'!$A$1:$W$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="12">'s3'!$A$1:$W$40</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="13">'s4'!$A$1:$W$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'p1'!$A$1:$W$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'p2'!$A$1:$W$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'p3'!$A$1:$W$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'p4'!$A$1:$W$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'p5'!$A$1:$W$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">'p6'!$A$1:$W$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">'s1'!$A$1:$W$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">'s2'!$A$1:$W$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="13">'s3'!$A$1:$W$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="14">'s4'!$A$1:$W$39</definedName>
     <definedName name="tbl_practiceCharacterization">Tables!$B$2:$B$6</definedName>
     <definedName name="tbl_practiceGroupRated">Tables!$B$9:$B$11</definedName>
   </definedNames>
@@ -6204,7 +6205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A364F4-07FE-4AE1-A184-18506418AACE}">
   <dimension ref="A2:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -7833,6 +7834,1649 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5BB1451-47BB-4E00-909D-59A97F1DA00B}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AA35"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:U35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="21" width="8.7265625" style="18"/>
+    <col min="22" max="22" width="8.7265625" style="18" hidden="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.7265625" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" s="52" customFormat="1" ht="18.5">
+      <c r="A1" s="52" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="93">
+      <c r="A2" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="58"/>
+      <c r="G2" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="P2" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.5">
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="N3" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="O3" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="P3" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q3" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="R3" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="S3" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="T3" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="U3" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="V3" s="39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15.5">
+      <c r="A4" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="J4" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="L4" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="M4" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="N4" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="O4" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="P4" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q4" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="R4" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="S4" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="T4" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="U4" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="V4" s="44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15.5">
+      <c r="A5" s="56"/>
+      <c r="B5" s="41">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="K5" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="M5" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="N5" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="O5" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="P5" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="R5" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="S5" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="T5" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="U5" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="V5" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA5" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="15.5">
+      <c r="A6" s="56"/>
+      <c r="B6" s="41">
+        <v>1.2</v>
+      </c>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q6" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="U6" s="42"/>
+      <c r="V6" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA6" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="15.5">
+      <c r="A7" s="56"/>
+      <c r="B7" s="41">
+        <v>1.3</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y7" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="15.5">
+      <c r="A8" s="56"/>
+      <c r="B8" s="41">
+        <v>1.4</v>
+      </c>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y8" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="15.5">
+      <c r="A9" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="I9" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="N9" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="P9" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q9" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="R9" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="S9" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="T9" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="U9" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="V9" s="44"/>
+      <c r="Y9" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="15.5">
+      <c r="A10" s="56"/>
+      <c r="B10" s="41">
+        <v>2.1</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="N10" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="O10" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="P10" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="R10" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="S10" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="T10" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="U10" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="V10" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="15.5">
+      <c r="A11" s="56"/>
+      <c r="B11" s="41">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="M11" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="N11" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="O11" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="P11" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q11" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="R11" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="S11" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="T11" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="U11" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="V11" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="15.5">
+      <c r="A12" s="56"/>
+      <c r="B12" s="41">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="I12" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="M12" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="R12" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="U12" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="V12" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="15.5">
+      <c r="A13" s="56"/>
+      <c r="B13" s="41">
+        <v>2.4</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="J13" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="R13" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="U13" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="V13" s="44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="15.5">
+      <c r="A14" s="56"/>
+      <c r="B14" s="41">
+        <v>2.5</v>
+      </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="U14" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="V14" s="44"/>
+    </row>
+    <row r="15" spans="1:27" ht="15.5">
+      <c r="A15" s="56"/>
+      <c r="B15" s="41">
+        <v>2.6</v>
+      </c>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="44"/>
+    </row>
+    <row r="16" spans="1:27" ht="15.5">
+      <c r="A16" s="56"/>
+      <c r="B16" s="41">
+        <v>2.7</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="44"/>
+    </row>
+    <row r="17" spans="1:22" ht="15.5">
+      <c r="A17" s="56"/>
+      <c r="B17" s="41">
+        <v>2.8</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="44"/>
+    </row>
+    <row r="18" spans="1:22" ht="15.5">
+      <c r="A18" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="H18" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="J18" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="K18" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="L18" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="M18" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="N18" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="O18" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="P18" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q18" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="R18" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="S18" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="T18" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="U18" s="42"/>
+      <c r="V18" s="44"/>
+    </row>
+    <row r="19" spans="1:22" ht="15.5">
+      <c r="A19" s="56"/>
+      <c r="B19" s="41">
+        <v>3.1</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="J19" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="K19" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="L19" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="M19" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="N19" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="O19" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="P19" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q19" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="R19" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="S19" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="T19" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="U19" s="42"/>
+      <c r="V19" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="15.5">
+      <c r="A20" s="56"/>
+      <c r="B20" s="41">
+        <v>3.2</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="K20" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="L20" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="M20" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="N20" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="O20" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="P20" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="R20" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="S20" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="15.5">
+      <c r="A21" s="56"/>
+      <c r="B21" s="41">
+        <v>3.3</v>
+      </c>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="K21" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="L21" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="M21" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="N21" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="O21" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="P21" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="44"/>
+    </row>
+    <row r="22" spans="1:22" ht="15.5">
+      <c r="A22" s="56"/>
+      <c r="B22" s="41">
+        <v>3.4</v>
+      </c>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="K22" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="L22" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="M22" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="N22" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="O22" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="P22" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="T22" s="42"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="44"/>
+    </row>
+    <row r="23" spans="1:22" ht="15.5">
+      <c r="A23" s="56"/>
+      <c r="B23" s="41">
+        <v>3.5</v>
+      </c>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="K23" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="L23" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="M23" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="N23" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="O23" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="T23" s="42"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="44"/>
+    </row>
+    <row r="24" spans="1:22" ht="15.5">
+      <c r="A24" s="56"/>
+      <c r="B24" s="41">
+        <v>3.6</v>
+      </c>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="K24" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="L24" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="M24" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="44"/>
+    </row>
+    <row r="25" spans="1:22" ht="15.5">
+      <c r="A25" s="56"/>
+      <c r="B25" s="41">
+        <v>3.7</v>
+      </c>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="44"/>
+    </row>
+    <row r="26" spans="1:22" ht="15.5">
+      <c r="A26" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="L26" s="42"/>
+      <c r="M26" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="R26" s="42"/>
+      <c r="S26" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="T26" s="42"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="44"/>
+    </row>
+    <row r="27" spans="1:22" ht="15.5">
+      <c r="A27" s="56"/>
+      <c r="B27" s="41">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="T27" s="42"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="15.5">
+      <c r="A28" s="56"/>
+      <c r="B28" s="41">
+        <v>4.2</v>
+      </c>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="T28" s="42"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="44"/>
+    </row>
+    <row r="29" spans="1:22" ht="15.5">
+      <c r="A29" s="56"/>
+      <c r="B29" s="41">
+        <v>4.3</v>
+      </c>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="42"/>
+      <c r="T29" s="42"/>
+      <c r="U29" s="42"/>
+      <c r="V29" s="44"/>
+    </row>
+    <row r="30" spans="1:22" ht="15.5">
+      <c r="A30" s="56"/>
+      <c r="B30" s="41">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="42"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="44"/>
+    </row>
+    <row r="31" spans="1:22" ht="15.5">
+      <c r="A31" s="56"/>
+      <c r="B31" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="42"/>
+      <c r="S31" s="42"/>
+      <c r="T31" s="42"/>
+      <c r="U31" s="42"/>
+      <c r="V31" s="44"/>
+    </row>
+    <row r="32" spans="1:22" ht="15.5">
+      <c r="A32" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="T32" s="42"/>
+      <c r="U32" s="42"/>
+      <c r="V32" s="44"/>
+    </row>
+    <row r="33" spans="1:22" ht="15.5">
+      <c r="A33" s="56"/>
+      <c r="B33" s="41">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="42"/>
+      <c r="S33" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="T33" s="42"/>
+      <c r="U33" s="42"/>
+      <c r="V33" s="44"/>
+    </row>
+    <row r="34" spans="1:22" ht="15.5">
+      <c r="A34" s="56"/>
+      <c r="B34" s="41">
+        <v>5.2</v>
+      </c>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="42"/>
+      <c r="T34" s="42"/>
+      <c r="U34" s="42"/>
+      <c r="V34" s="44"/>
+    </row>
+    <row r="35" spans="1:22" ht="15.5">
+      <c r="A35" s="56"/>
+      <c r="B35" s="41">
+        <v>5.3</v>
+      </c>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="42"/>
+      <c r="R35" s="42"/>
+      <c r="S35" s="42"/>
+      <c r="T35" s="42"/>
+      <c r="U35" s="42"/>
+      <c r="V35" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:M2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C4:V35">
+    <cfRule type="cellIs" dxfId="191" priority="26" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="27" stopIfTrue="1" operator="equal">
+      <formula>"FM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="189" priority="28" stopIfTrue="1" operator="equal">
+      <formula>"LM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="188" priority="29" stopIfTrue="1" operator="equal">
+      <formula>"PM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="187" priority="30" stopIfTrue="1" operator="equal">
+      <formula>"DM"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="cellIs" dxfId="186" priority="21" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="185" priority="22" stopIfTrue="1" operator="equal">
+      <formula>"FM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="23" stopIfTrue="1" operator="equal">
+      <formula>"LM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="183" priority="24" stopIfTrue="1" operator="equal">
+      <formula>"PM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="182" priority="25" stopIfTrue="1" operator="equal">
+      <formula>"DM"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="cellIs" dxfId="181" priority="16" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="17" stopIfTrue="1" operator="equal">
+      <formula>"FM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="179" priority="18" stopIfTrue="1" operator="equal">
+      <formula>"LM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="19" stopIfTrue="1" operator="equal">
+      <formula>"PM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="177" priority="20" stopIfTrue="1" operator="equal">
+      <formula>"DM"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="cellIs" dxfId="176" priority="11" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="175" priority="12" stopIfTrue="1" operator="equal">
+      <formula>"FM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="13" stopIfTrue="1" operator="equal">
+      <formula>"LM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="173" priority="14" stopIfTrue="1" operator="equal">
+      <formula>"PM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="15" stopIfTrue="1" operator="equal">
+      <formula>"DM"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26">
+    <cfRule type="cellIs" dxfId="171" priority="6" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"FM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"LM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"PM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="167" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"DM"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="cellIs" dxfId="166" priority="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"FM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"LM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="163" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"PM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"DM"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C43825B-26C8-4F68-B745-0ADAFC974B0D}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -9475,7 +11119,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F11A00-D8DC-4ED6-90EA-1E487F5466F5}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -11118,7 +12762,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D2ECA2C-B60D-45B6-8401-AA65A43DDA11}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -12761,7 +14405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66BE8E21-1C00-44CB-BA2A-E2F587375DD9}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -14404,7 +16048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936F0A22-A625-4960-BE68-F284E1ABE689}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -16047,7 +17691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E05960-3F9D-4C59-BD13-329D61D94FD0}">
   <dimension ref="A2:Q19"/>
   <sheetViews>
@@ -16367,7 +18011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9F7A71-3D99-4E69-8AB7-2554F15FFCD1}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
@@ -16492,7 +18136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr codeName="Sheet25">
     <tabColor rgb="FF007DC4"/>
@@ -19569,6 +21213,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{285E6A9A-D1D0-450F-B49E-63373D69048E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830787B0-F22E-4E20-B3C3-E1EE99768D4A}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -21211,7 +22869,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91271F8-89F2-4F34-947F-871D09844C05}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -22854,7 +24512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136E68C1-4DFC-42C1-A9D4-B801CE76EF44}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -24497,7 +26155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B0D205A-4BF0-4FA1-9FB2-1160C6912F0F}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -26140,1665 +27798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5BB1451-47BB-4E00-909D-59A97F1DA00B}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:AA35"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:U35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="21" width="8.7265625" style="18"/>
-    <col min="22" max="22" width="8.7265625" style="18" hidden="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.7265625" style="18"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" s="52" customFormat="1" ht="18.5">
-      <c r="A1" s="52" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="93">
-      <c r="A2" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="58"/>
-      <c r="G2" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="O2" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="P2" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="39" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="15.5">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="J3" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="K3" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="L3" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="M3" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="N3" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="O3" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="P3" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q3" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="R3" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="S3" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="T3" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="U3" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="V3" s="39" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="15.5">
-      <c r="A4" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="F4" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="G4" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="I4" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="J4" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="K4" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="L4" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="M4" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="N4" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="O4" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="P4" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q4" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="R4" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="S4" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="T4" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="U4" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="V4" s="44" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="15.5">
-      <c r="A5" s="56"/>
-      <c r="B5" s="41">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="H5" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="I5" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="J5" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="K5" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="L5" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="M5" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="N5" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="O5" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="P5" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q5" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="R5" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="S5" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="T5" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="U5" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="V5" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA5" s="18" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="15.5">
-      <c r="A6" s="56"/>
-      <c r="B6" s="41">
-        <v>1.2</v>
-      </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q6" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="U6" s="42"/>
-      <c r="V6" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y6" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA6" s="18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="15.5">
-      <c r="A7" s="56"/>
-      <c r="B7" s="41">
-        <v>1.3</v>
-      </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y7" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="15.5">
-      <c r="A8" s="56"/>
-      <c r="B8" s="41">
-        <v>1.4</v>
-      </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="42"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y8" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="15.5">
-      <c r="A9" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="G9" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="H9" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="I9" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="J9" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="K9" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="L9" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="M9" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="N9" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="O9" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="P9" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q9" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="R9" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="S9" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="T9" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="U9" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="V9" s="44"/>
-      <c r="Y9" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="15.5">
-      <c r="A10" s="56"/>
-      <c r="B10" s="41">
-        <v>2.1</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="H10" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="I10" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="J10" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="K10" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="L10" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="M10" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="N10" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="O10" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="P10" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q10" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="R10" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="S10" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="T10" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="U10" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="V10" s="44" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="15.5">
-      <c r="A11" s="56"/>
-      <c r="B11" s="41">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="H11" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="I11" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="J11" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="K11" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="L11" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="M11" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="N11" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="O11" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="P11" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q11" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="R11" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="S11" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="T11" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="U11" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="V11" s="44" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="15.5">
-      <c r="A12" s="56"/>
-      <c r="B12" s="41">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="G12" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="H12" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="I12" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="J12" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="M12" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q12" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="R12" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="S12" s="42"/>
-      <c r="T12" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="U12" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="V12" s="44" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="15.5">
-      <c r="A13" s="56"/>
-      <c r="B13" s="41">
-        <v>2.4</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="G13" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="J13" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q13" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="R13" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="U13" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="V13" s="44" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="15.5">
-      <c r="A14" s="56"/>
-      <c r="B14" s="41">
-        <v>2.5</v>
-      </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="U14" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="V14" s="44"/>
-    </row>
-    <row r="15" spans="1:27" ht="15.5">
-      <c r="A15" s="56"/>
-      <c r="B15" s="41">
-        <v>2.6</v>
-      </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="44"/>
-    </row>
-    <row r="16" spans="1:27" ht="15.5">
-      <c r="A16" s="56"/>
-      <c r="B16" s="41">
-        <v>2.7</v>
-      </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="R16" s="42"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="44"/>
-    </row>
-    <row r="17" spans="1:22" ht="15.5">
-      <c r="A17" s="56"/>
-      <c r="B17" s="41">
-        <v>2.8</v>
-      </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="44"/>
-    </row>
-    <row r="18" spans="1:22" ht="15.5">
-      <c r="A18" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="B18" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="E18" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="G18" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="H18" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="I18" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="J18" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="K18" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="L18" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="M18" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="N18" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="O18" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="P18" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q18" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="R18" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="S18" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="T18" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="U18" s="42"/>
-      <c r="V18" s="44"/>
-    </row>
-    <row r="19" spans="1:22" ht="15.5">
-      <c r="A19" s="56"/>
-      <c r="B19" s="41">
-        <v>3.1</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="G19" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="H19" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="I19" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="J19" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="K19" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="L19" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="M19" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="N19" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="O19" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="P19" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q19" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="R19" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="S19" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="T19" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="U19" s="42"/>
-      <c r="V19" s="44" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="15.5">
-      <c r="A20" s="56"/>
-      <c r="B20" s="41">
-        <v>3.2</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="K20" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="L20" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="M20" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="N20" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="O20" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="P20" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q20" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="R20" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="S20" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="T20" s="42"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="44" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="15.5">
-      <c r="A21" s="56"/>
-      <c r="B21" s="41">
-        <v>3.3</v>
-      </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="K21" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="L21" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="M21" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="N21" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="O21" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="P21" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q21" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="R21" s="42"/>
-      <c r="S21" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="T21" s="42"/>
-      <c r="U21" s="42"/>
-      <c r="V21" s="44"/>
-    </row>
-    <row r="22" spans="1:22" ht="15.5">
-      <c r="A22" s="56"/>
-      <c r="B22" s="41">
-        <v>3.4</v>
-      </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="K22" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="L22" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="M22" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="N22" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="O22" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="P22" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q22" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="R22" s="42"/>
-      <c r="S22" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="T22" s="42"/>
-      <c r="U22" s="42"/>
-      <c r="V22" s="44"/>
-    </row>
-    <row r="23" spans="1:22" ht="15.5">
-      <c r="A23" s="56"/>
-      <c r="B23" s="41">
-        <v>3.5</v>
-      </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="K23" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="L23" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="M23" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="N23" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="O23" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="T23" s="42"/>
-      <c r="U23" s="42"/>
-      <c r="V23" s="44"/>
-    </row>
-    <row r="24" spans="1:22" ht="15.5">
-      <c r="A24" s="56"/>
-      <c r="B24" s="41">
-        <v>3.6</v>
-      </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="K24" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="L24" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="M24" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
-      <c r="S24" s="42"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="44"/>
-    </row>
-    <row r="25" spans="1:22" ht="15.5">
-      <c r="A25" s="56"/>
-      <c r="B25" s="41">
-        <v>3.7</v>
-      </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="42"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="44"/>
-    </row>
-    <row r="26" spans="1:22" ht="15.5">
-      <c r="A26" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="B26" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="L26" s="42"/>
-      <c r="M26" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="R26" s="42"/>
-      <c r="S26" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="T26" s="42"/>
-      <c r="U26" s="42"/>
-      <c r="V26" s="44"/>
-    </row>
-    <row r="27" spans="1:22" ht="15.5">
-      <c r="A27" s="56"/>
-      <c r="B27" s="41">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C27" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="R27" s="42"/>
-      <c r="S27" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="T27" s="42"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="44" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="15.5">
-      <c r="A28" s="56"/>
-      <c r="B28" s="41">
-        <v>4.2</v>
-      </c>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="42"/>
-      <c r="S28" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="T28" s="42"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="44"/>
-    </row>
-    <row r="29" spans="1:22" ht="15.5">
-      <c r="A29" s="56"/>
-      <c r="B29" s="41">
-        <v>4.3</v>
-      </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="42"/>
-      <c r="S29" s="42"/>
-      <c r="T29" s="42"/>
-      <c r="U29" s="42"/>
-      <c r="V29" s="44"/>
-    </row>
-    <row r="30" spans="1:22" ht="15.5">
-      <c r="A30" s="56"/>
-      <c r="B30" s="41">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="42"/>
-      <c r="R30" s="42"/>
-      <c r="S30" s="42"/>
-      <c r="T30" s="42"/>
-      <c r="U30" s="42"/>
-      <c r="V30" s="44"/>
-    </row>
-    <row r="31" spans="1:22" ht="15.5">
-      <c r="A31" s="56"/>
-      <c r="B31" s="41">
-        <v>4.5</v>
-      </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="42"/>
-      <c r="S31" s="42"/>
-      <c r="T31" s="42"/>
-      <c r="U31" s="42"/>
-      <c r="V31" s="44"/>
-    </row>
-    <row r="32" spans="1:22" ht="15.5">
-      <c r="A32" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="B32" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="N32" s="42"/>
-      <c r="O32" s="42"/>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="42"/>
-      <c r="R32" s="42"/>
-      <c r="S32" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="T32" s="42"/>
-      <c r="U32" s="42"/>
-      <c r="V32" s="44"/>
-    </row>
-    <row r="33" spans="1:22" ht="15.5">
-      <c r="A33" s="56"/>
-      <c r="B33" s="41">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="N33" s="42"/>
-      <c r="O33" s="42"/>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="42"/>
-      <c r="R33" s="42"/>
-      <c r="S33" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="T33" s="42"/>
-      <c r="U33" s="42"/>
-      <c r="V33" s="44"/>
-    </row>
-    <row r="34" spans="1:22" ht="15.5">
-      <c r="A34" s="56"/>
-      <c r="B34" s="41">
-        <v>5.2</v>
-      </c>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="N34" s="42"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="42"/>
-      <c r="R34" s="42"/>
-      <c r="S34" s="42"/>
-      <c r="T34" s="42"/>
-      <c r="U34" s="42"/>
-      <c r="V34" s="44"/>
-    </row>
-    <row r="35" spans="1:22" ht="15.5">
-      <c r="A35" s="56"/>
-      <c r="B35" s="41">
-        <v>5.3</v>
-      </c>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="N35" s="42"/>
-      <c r="O35" s="42"/>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="42"/>
-      <c r="R35" s="42"/>
-      <c r="S35" s="42"/>
-      <c r="T35" s="42"/>
-      <c r="U35" s="42"/>
-      <c r="V35" s="44"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:M2"/>
-  </mergeCells>
-  <conditionalFormatting sqref="C4:V35">
-    <cfRule type="cellIs" dxfId="191" priority="26" operator="equal">
-      <formula>"S"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="27" stopIfTrue="1" operator="equal">
-      <formula>"FM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="28" stopIfTrue="1" operator="equal">
-      <formula>"LM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="29" stopIfTrue="1" operator="equal">
-      <formula>"PM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="30" stopIfTrue="1" operator="equal">
-      <formula>"DM"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="186" priority="21" operator="equal">
-      <formula>"S"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="22" stopIfTrue="1" operator="equal">
-      <formula>"FM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="23" stopIfTrue="1" operator="equal">
-      <formula>"LM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="24" stopIfTrue="1" operator="equal">
-      <formula>"PM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="25" stopIfTrue="1" operator="equal">
-      <formula>"DM"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="181" priority="16" operator="equal">
-      <formula>"S"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="17" stopIfTrue="1" operator="equal">
-      <formula>"FM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="18" stopIfTrue="1" operator="equal">
-      <formula>"LM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="19" stopIfTrue="1" operator="equal">
-      <formula>"PM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="20" stopIfTrue="1" operator="equal">
-      <formula>"DM"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="cellIs" dxfId="176" priority="11" operator="equal">
-      <formula>"S"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="12" stopIfTrue="1" operator="equal">
-      <formula>"FM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="13" stopIfTrue="1" operator="equal">
-      <formula>"LM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="14" stopIfTrue="1" operator="equal">
-      <formula>"PM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="15" stopIfTrue="1" operator="equal">
-      <formula>"DM"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26">
-    <cfRule type="cellIs" dxfId="171" priority="6" operator="equal">
-      <formula>"S"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="7" stopIfTrue="1" operator="equal">
-      <formula>"FM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="8" stopIfTrue="1" operator="equal">
-      <formula>"LM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="9" stopIfTrue="1" operator="equal">
-      <formula>"PM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="10" stopIfTrue="1" operator="equal">
-      <formula>"DM"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32">
-    <cfRule type="cellIs" dxfId="166" priority="1" operator="equal">
-      <formula>"S"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="2" stopIfTrue="1" operator="equal">
-      <formula>"FM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"LM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"PM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"DM"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F041F74863103D4C9C3AA0A07291BB02" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b6917a42179461cc29e626d7b562cefd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="25bcabcf-d275-4206-9fb1-2f2d419cd22b" xmlns:ns3="ec500478-62e0-46fc-87f1-cfa988e486b4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2a71d797267f4c7d6ca005f01f7b1c6c" ns2:_="" ns3:_="">
     <xsd:import namespace="25bcabcf-d275-4206-9fb1-2f2d419cd22b"/>
@@ -28015,19 +28015,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3AD396B-AF60-40B6-B9B0-96840893AD50}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE45FE28-8857-469C-99C1-F7A3286F6244}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{136EE945-6243-4767-8E65-C9D6202FF8BA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -28044,4 +28047,16 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE45FE28-8857-469C-99C1-F7A3286F6244}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3AD396B-AF60-40B6-B9B0-96840893AD50}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>